--- a/biology/Zoologie/Caprimulgus/Caprimulgus.xlsx
+++ b/biology/Zoologie/Caprimulgus/Caprimulgus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Caprimulgus regroupe plusieurs espèces d'engoulevents, oiseaux de la famille des Caprimulgidae.
 </t>
@@ -511,12 +523,49 @@
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom latin « caprimulgus » signifie « suceur de chèvre » car jadis, les paysans croyaient que l'engoulevent, oiseau du crépuscule, pénétrait dans les étables à la nuit tombée pour sucer le pis des bêtes. 
-En 2010, une phylogénie des engoulevents est réalisée par Han et al., changeant grandement la taxinomie de l'ordre. Plusieurs espèces sont déplacées vers d'autres genres : Systellura, Hydropsalis, Eleothreptus, Setopagis, Nyctidromus, Nyctipolus et Gactornis[1].
-Liste des espèces
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[2] :
+En 2010, une phylogénie des engoulevents est réalisée par Han et al., changeant grandement la taxinomie de l'ordre. Plusieurs espèces sont déplacées vers d'autres genres : Systellura, Hydropsalis, Eleothreptus, Setopagis, Nyctidromus, Nyctipolus et Gactornis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caprimulgus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caprimulgus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie et systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 Caprimulgus ruficollis – Engoulevent à collier roux
 Caprimulgus indicus – Engoulevent de jungle
 Caprimulgus jotaka – Engoulevent jotaka
